--- a/Power_Board/WDY_Power_Board - Fabrication/WDY_Power_Board_Part_List.xlsx
+++ b/Power_Board/WDY_Power_Board - Fabrication/WDY_Power_Board_Part_List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\ExMachina\repos\WDY-electronics\Power_Board\Fabrication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\Documents\ExMachina\repos\WDY-electronics\Power_Board\WDY_Power_Board - Fabrication\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BOM" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="WDY_Power_Board_Part_List_1" localSheetId="1">BOM!$A$1:$G$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Tableau1[#All]</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,32 +25,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="WDY_Power_Board_Part_List" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr sourceFile="C:\Users\Adrian\Documents\ExMachina\repos\WDY-electronics\Power_Board\Fabrication\WDY_Power_Board_Part_List.csv" tab="0" semicolon="1">
-      <textFields count="15">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -364,13 +338,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -378,13 +447,226 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -471,8 +753,23 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="WDY_Power_Board_Part_List_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:G19"/>
+  <sortState ref="A2:G19">
+    <sortCondition ref="E1:E19"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Qty" dataDxfId="8"/>
+    <tableColumn id="2" name="Value" dataDxfId="7"/>
+    <tableColumn id="3" name="Device" dataDxfId="6"/>
+    <tableColumn id="4" name="Package" dataDxfId="5"/>
+    <tableColumn id="5" name="Parts" dataDxfId="4"/>
+    <tableColumn id="6" name="Description" dataDxfId="3"/>
+    <tableColumn id="7" name="MPN" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,7 +1072,7 @@
   <dimension ref="A6:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,43 +1082,43 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f ca="1">TODAY()</f>
         <v>42746</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -833,20 +1130,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F25"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="64.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" customWidth="1"/>
@@ -862,444 +1162,447 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="8">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2007041</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="9">
+        <v>74477410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="9">
+        <v>744774115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G16" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4">
-        <v>74477410</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5">
-        <v>744774115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2007041</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15">
-        <v>3557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G18">
+      <c r="G19" s="16">
         <v>1757242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Power_Board/WDY_Power_Board - Fabrication/WDY_Power_Board_Part_List.xlsx
+++ b/Power_Board/WDY_Power_Board - Fabrication/WDY_Power_Board_Part_List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="PdG" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
   <si>
     <t>Value</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>Redresseur Schottky, 40 V, 1 A, Une, DO-214AA, 2 Broche(s), 600 mV</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Part List</t>
   </si>
 </sst>
 </file>
@@ -493,22 +499,6 @@
   <dxfs count="12">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -645,25 +635,41 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -754,19 +760,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:G19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G19"/>
   <sortState ref="A2:G19">
     <sortCondition ref="E1:E19"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Qty" dataDxfId="8"/>
-    <tableColumn id="2" name="Value" dataDxfId="7"/>
-    <tableColumn id="3" name="Device" dataDxfId="6"/>
-    <tableColumn id="4" name="Package" dataDxfId="5"/>
-    <tableColumn id="5" name="Parts" dataDxfId="4"/>
-    <tableColumn id="6" name="Description" dataDxfId="3"/>
-    <tableColumn id="7" name="MPN" dataDxfId="2"/>
+    <tableColumn id="1" name="Qty" dataDxfId="6"/>
+    <tableColumn id="2" name="Value" dataDxfId="5"/>
+    <tableColumn id="3" name="Device" dataDxfId="4"/>
+    <tableColumn id="4" name="Package" dataDxfId="3"/>
+    <tableColumn id="5" name="Parts" dataDxfId="2"/>
+    <tableColumn id="6" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" name="MPN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1069,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:B10"/>
+  <dimension ref="A6:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,26 +1105,34 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3">
-        <f ca="1">TODAY()</f>
-        <v>42746</v>
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3">
+        <f ca="1">TODAY()</f>
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1135,7 +1149,7 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
